--- a/Data/aearep-1723/candidatepackages.xlsx
+++ b/Data/aearep-1723/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -43,15 +43,15 @@
     <t>white</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -91,9 +91,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1723/130286/Programs</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1723/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>web_traffic_graphs.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -187,7 +181,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -211,7 +205,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -223,7 +217,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -235,7 +229,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -247,10 +241,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C7">
-        <v>0.1545092910528183</v>
+        <v>0.16066116094589233</v>
       </c>
       <c r="D7"/>
     </row>
@@ -259,10 +253,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D8"/>
     </row>
@@ -271,10 +265,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C9">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D9"/>
     </row>
@@ -283,10 +277,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>985</v>
+        <v>875</v>
       </c>
       <c r="C10">
-        <v>0.32659152150154114</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D10"/>
     </row>
@@ -295,10 +289,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1077</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.35709547996520996</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -307,10 +301,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1133</v>
+        <v>998</v>
       </c>
       <c r="C12">
-        <v>0.37566313147544861</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D12"/>
     </row>
@@ -319,10 +313,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C13">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D13"/>
     </row>
@@ -331,10 +325,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C14">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D14"/>
     </row>
@@ -343,10 +337,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C15">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D15"/>
     </row>
@@ -355,10 +349,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C16">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D16"/>
     </row>
@@ -367,10 +361,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1745</v>
+        <v>1937</v>
       </c>
       <c r="C17">
-        <v>0.57858091592788696</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D17"/>
     </row>
@@ -379,10 +373,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1835</v>
+        <v>2030</v>
       </c>
       <c r="C18">
-        <v>0.60842174291610718</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D18"/>
     </row>
@@ -391,10 +385,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C19">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D19"/>
     </row>
@@ -403,10 +397,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2714</v>
+        <v>2785</v>
       </c>
       <c r="C20">
-        <v>0.89986735582351685</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D20"/>
     </row>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -424,7 +418,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -432,7 +426,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +434,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +442,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -456,7 +450,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -464,7 +458,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -472,7 +466,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -480,7 +474,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -488,15 +482,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
